--- a/docu/LossFunctionExperimentSet/TestExperiment7.xlsx
+++ b/docu/LossFunctionExperimentSet/TestExperiment7.xlsx
@@ -3,17 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900A6F5-004C-451B-B34E-9EEDAE65E2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3420B8-1BC4-4050-B8B2-05B9DF3A0ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2130" windowWidth="17070" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -343,63 +354,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -425,23 +427,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +731,7 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -748,11 +749,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -766,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -776,11 +777,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>44652</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -791,26 +792,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -819,657 +820,805 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>0</v>
-      </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
         <v>0</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="19">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.156</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="B13" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.15699999999999997</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="19">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="C14" s="19">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1.9736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="B14" s="18">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>14.597</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C16" s="18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>8.3659999999999997</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.246</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1.3850000000000002</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.153</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.151</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.127</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.152</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1.1999999999999999E-2</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.32099999999999995</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.104</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>24</v>
+      </c>
+      <c r="B22" s="18">
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.129</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C15" s="19">
-        <v>2E-3</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1.4597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="19">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="C16" s="19">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.83660000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.27029999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2.46E-2</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.13850000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="C19" s="19">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>20</v>
-      </c>
-      <c r="B20" s="19">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="C20" s="19">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="D20" s="19">
-        <v>1.52E-2</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>22</v>
-      </c>
-      <c r="B21" s="19">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="19">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="D21" s="19">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="E21" s="20">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>24</v>
-      </c>
-      <c r="B22" s="19">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C22" s="19">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="D22" s="19">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E22" s="20">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>26</v>
-      </c>
-      <c r="B23" s="19">
-        <v>4.3E-3</v>
-      </c>
-      <c r="C23" s="19">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="D23" s="19">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="C23" s="18">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.184</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.12200000000000001</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>28</v>
       </c>
-      <c r="B24" s="19">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="C24" s="19">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="D24" s="19">
-        <v>1.46E-2</v>
-      </c>
-      <c r="E24" s="20">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="B24" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>30</v>
       </c>
-      <c r="B25" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="C25" s="19">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="D25" s="19">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="B25" s="18">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>32</v>
       </c>
-      <c r="B26" s="19">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="C26" s="19">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D26" s="19">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="E26" s="20">
-        <v>9.2999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="B26" s="18">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.193</v>
+      </c>
+      <c r="E26" s="18">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>34</v>
       </c>
-      <c r="B27" s="19">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C27" s="19">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="D27" s="19">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="B27" s="18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.23099999999999998</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>36</v>
       </c>
-      <c r="B28" s="19">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="C28" s="19">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="D28" s="19">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1.09E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="B28" s="18">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0.22599999999999998</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.19199999999999998</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.109</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>38</v>
       </c>
-      <c r="B29" s="19">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C29" s="19">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E29" s="20">
-        <v>8.8000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="B29" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E29" s="18">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>40</v>
       </c>
-      <c r="B30" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C30" s="19">
-        <v>1.47E-2</v>
-      </c>
-      <c r="D30" s="19">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="B30" s="18">
+        <v>1.1999999999999999E-2</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>45</v>
       </c>
-      <c r="B31" s="19">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C31" s="19">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E31" s="20">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="B31" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C31" s="18">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>50</v>
       </c>
-      <c r="B32" s="19">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C32" s="19">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="D32" s="19">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E32" s="20">
-        <v>1.3899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="B32" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="18">
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.13899999999999998</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>55</v>
       </c>
-      <c r="B33" s="19">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="C33" s="19">
-        <v>3.8E-3</v>
-      </c>
-      <c r="D33" s="19">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="E33" s="20">
-        <v>1.46E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="B33" s="18">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="C33" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>60</v>
       </c>
-      <c r="B34" s="19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C34" s="19">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D34" s="19">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E34" s="20">
-        <v>1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="B34" s="18">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2.3999999999999997E-2</v>
+      </c>
+      <c r="D34" s="18">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>65</v>
       </c>
-      <c r="B35" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D35" s="19">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="E35" s="20">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="B35" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="D35" s="18">
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>70</v>
       </c>
-      <c r="B36" s="19">
-        <v>0</v>
-      </c>
-      <c r="C36" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D36" s="19">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="E36" s="20">
-        <v>1.23E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="B36" s="18">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1.1999999999999999E-2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.123</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>75</v>
       </c>
-      <c r="B37" s="19">
-        <v>0</v>
-      </c>
-      <c r="C37" s="19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D37" s="19">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="E37" s="20">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="B37" s="18">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D37" s="18">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>80</v>
       </c>
-      <c r="B38" s="19">
-        <v>0</v>
-      </c>
-      <c r="C38" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="D38" s="19">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="E38" s="20">
-        <v>1.23E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="B38" s="18">
+        <v>0</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0.123</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>85</v>
       </c>
-      <c r="B39" s="19">
-        <v>0</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="D39" s="19">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="E39" s="20">
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="B39" s="18">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>90</v>
       </c>
-      <c r="B40" s="19">
-        <v>0</v>
-      </c>
-      <c r="C40" s="19">
-        <v>0</v>
-      </c>
-      <c r="D40" s="19">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E40" s="20">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="B40" s="18">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>105</v>
       </c>
-      <c r="B41" s="19">
-        <v>0</v>
-      </c>
-      <c r="C41" s="19">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E41" s="20">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="B41" s="18">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0</v>
+      </c>
+      <c r="D41" s="18">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>120</v>
       </c>
-      <c r="B42" s="19">
-        <v>0</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
-      <c r="D42" s="19">
-        <v>0</v>
-      </c>
-      <c r="E42" s="20">
-        <v>1.9099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="B42" s="18">
+        <v>0</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0.191</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>135</v>
       </c>
-      <c r="B43" s="19">
-        <v>0</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="20">
-        <v>1.18E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="B43" s="18">
+        <v>0</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>150</v>
       </c>
-      <c r="B44" s="19">
-        <v>0</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="20">
-        <v>1.35E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="B44" s="18">
+        <v>0</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>165</v>
       </c>
-      <c r="B45" s="19">
-        <v>0</v>
-      </c>
-      <c r="C45" s="19">
-        <v>0</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0</v>
-      </c>
-      <c r="E45" s="20">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="B45" s="18">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0</v>
+      </c>
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>180</v>
       </c>
-      <c r="B46" s="21">
-        <v>0</v>
-      </c>
-      <c r="C46" s="21">
-        <v>0</v>
-      </c>
-      <c r="D46" s="21">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B46" s="18">
+        <v>0</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docu/LossFunctionExperimentSet/TestExperiment7.xlsx
+++ b/docu/LossFunctionExperimentSet/TestExperiment7.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3420B8-1BC4-4050-B8B2-05B9DF3A0ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C617C1-738F-41BC-A530-96879CA17116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Experiment conditions</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Dead volume</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -429,7 +432,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -440,9 +443,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,7 +729,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +798,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
